--- a/INPUT_ExtrusionPlan3.xlsx
+++ b/INPUT_ExtrusionPlan3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunor\OneDrive\Documentos\GitHub\COFACTORYv01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E96CC6-EAAA-4CFE-9A5D-F0BE89E92629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E0529-6096-442E-8B73-BDC115AFCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="3540" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15810" yWindow="4275" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestRun2" sheetId="2" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>3134000</v>
       </c>
       <c r="C2" s="2">
-        <v>45642</v>
+        <v>45852</v>
       </c>
       <c r="D2" s="3">
         <v>9</v>
@@ -626,7 +626,7 @@
         <v>490000</v>
       </c>
       <c r="C3" s="2">
-        <v>45642.092361111114</v>
+        <v>45852.092361111114</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>50000</v>
       </c>
       <c r="C4" s="2">
-        <v>45642.34652777778</v>
+        <v>45852.34652777778</v>
       </c>
       <c r="D4" s="3">
         <v>9</v>
@@ -654,7 +654,7 @@
         <v>80000</v>
       </c>
       <c r="C5" s="2">
-        <v>45642.439583333333</v>
+        <v>45852.439583333333</v>
       </c>
       <c r="D5" s="3">
         <v>9</v>
@@ -668,7 +668,7 @@
         <v>85000</v>
       </c>
       <c r="C6" s="2">
-        <v>45642.454861111109</v>
+        <v>45852.454861111109</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
@@ -682,7 +682,7 @@
         <v>150000</v>
       </c>
       <c r="C7" s="2">
-        <v>45642.467361111114</v>
+        <v>45852.467361111114</v>
       </c>
       <c r="D7" s="3">
         <v>9</v>
@@ -696,7 +696,7 @@
         <v>185000</v>
       </c>
       <c r="C8" s="2">
-        <v>45642.548611111109</v>
+        <v>45852.548611111109</v>
       </c>
       <c r="D8" s="3">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>75000</v>
       </c>
       <c r="C9" s="2">
-        <v>45642.572916666664</v>
+        <v>45852.572916666664</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>15000</v>
       </c>
       <c r="C10" s="2">
-        <v>45642.913194444445</v>
+        <v>45852.913194444445</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -738,7 +738,7 @@
         <v>1652000</v>
       </c>
       <c r="C11" s="2">
-        <v>45643.765972222223</v>
+        <v>45853.765972222223</v>
       </c>
       <c r="D11" s="3">
         <v>7</v>
@@ -752,7 +752,7 @@
         <v>2641000</v>
       </c>
       <c r="C12" s="2">
-        <v>45643.84375</v>
+        <v>45853.84375</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -766,7 +766,7 @@
         <v>1206400</v>
       </c>
       <c r="C13" s="2">
-        <v>45643.950694444444</v>
+        <v>45853.950694444444</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>70000</v>
       </c>
       <c r="C14" s="2">
-        <v>45644</v>
+        <v>45854</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -794,7 +794,7 @@
         <v>48000</v>
       </c>
       <c r="C15" s="2">
-        <v>45644.107638888891</v>
+        <v>45854.107638888891</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -808,7 +808,7 @@
         <v>912000</v>
       </c>
       <c r="C16" s="2">
-        <v>45644.119444444441</v>
+        <v>45854.119444444441</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -822,7 +822,7 @@
         <v>811000</v>
       </c>
       <c r="C17" s="2">
-        <v>45644.820833333331</v>
+        <v>45854.820833333331</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -836,7 +836,7 @@
         <v>690000</v>
       </c>
       <c r="C18" s="2">
-        <v>45645.138888888891</v>
+        <v>45855.138888888891</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -850,7 +850,7 @@
         <v>90000</v>
       </c>
       <c r="C19" s="2">
-        <v>45645.35</v>
+        <v>45855.35</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -864,7 +864,7 @@
         <v>57200</v>
       </c>
       <c r="C20" s="2">
-        <v>45646.194444444445</v>
+        <v>45856.194444444445</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>8500</v>
       </c>
       <c r="C21" s="2">
-        <v>45646.302083333336</v>
+        <v>45856.302083333336</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="C22" s="2">
-        <v>45643.107638888891</v>
+        <v>45853.107638888891</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
@@ -906,7 +906,7 @@
         <v>500000</v>
       </c>
       <c r="C23" s="2">
-        <v>45643.119444444441</v>
+        <v>45853.119444444441</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
@@ -920,7 +920,7 @@
         <v>21500</v>
       </c>
       <c r="C24" s="2">
-        <v>45643.820833333331</v>
+        <v>45853.820833333331</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -934,7 +934,7 @@
         <v>43000</v>
       </c>
       <c r="C25" s="2">
-        <v>45644.138888888891</v>
+        <v>45854.138888888891</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
@@ -948,7 +948,7 @@
         <v>270000</v>
       </c>
       <c r="C26" s="2">
-        <v>45644.35</v>
+        <v>45854.35</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
@@ -962,7 +962,7 @@
         <v>320000</v>
       </c>
       <c r="C27" s="2">
-        <v>45645.194444444445</v>
+        <v>45855.194444444445</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
@@ -976,7 +976,7 @@
         <v>448000</v>
       </c>
       <c r="C28" s="2">
-        <v>45645.302083333336</v>
+        <v>45855.302083333336</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -990,7 +990,7 @@
         <v>102400</v>
       </c>
       <c r="C29" s="2">
-        <v>45644.138888888891</v>
+        <v>45854.138888888891</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>44800</v>
       </c>
       <c r="C30" s="2">
-        <v>45645.194444444445</v>
+        <v>45855.194444444445</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>75000</v>
       </c>
       <c r="C31" s="2">
-        <v>45645.194444444445</v>
+        <v>45855.194444444445</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
@@ -1026,7 +1026,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A31">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1260,7 +1260,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A15">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
